--- a/biology/Zoologie/Caprinidae/Caprinidae.xlsx
+++ b/biology/Zoologie/Caprinidae/Caprinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Caprinidae sont une famille éteinte de mollusques bivalves de l'ordre des rudistes. Ces espèces sont apparues il y a 145 millions d'années et ont disparu il y a 66 millions d'années[1]. Ils ont donc vécu durant le Mésozoïque (Jurassique et Crétacé).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Caprinidae sont une famille éteinte de mollusques bivalves de l'ordre des rudistes. Ces espèces sont apparues il y a 145 millions d'années et ont disparu il y a 66 millions d'années. Ils ont donc vécu durant le Mésozoïque (Jurassique et Crétacé).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 mars 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 mars 2021) :
 genre † Caprina d'Orbigny, 1822
 genre † Offneria Paquier, 1905
 genre † Orthoptychus Futterer, 1892
@@ -522,7 +536,7 @@
 genre † Pseudocaprina Chartrousse &amp; Masse, 1999
 genre † Schiosia Böhm, 1892
 genre † Sphaerucaprina Gemmellaro, 1865
-Auxquels Paleobiology Database                   (8 mars 2021)[3] ajoute :
+Auxquels Paleobiology Database                   (8 mars 2021) ajoute :
 genre † Pacificaprina Chartrousse &amp; Masse</t>
         </is>
       </c>
